--- a/DPK_Tournament.xlsx
+++ b/DPK_Tournament.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="17">
   <si>
     <t>Time Attack</t>
   </si>
@@ -39,6 +39,33 @@
   </si>
   <si>
     <t>Points</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Missions Total</t>
+  </si>
+  <si>
+    <t>Total XP</t>
+  </si>
+  <si>
+    <t>Average XP</t>
   </si>
   <si>
     <t>nebula</t>
@@ -556,7 +583,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -736,12 +763,71 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2500</v>
+      </c>
+      <c r="I2">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DPK_Tournament.xlsx
+++ b/DPK_Tournament.xlsx
@@ -824,7 +824,7 @@
         <v>2500</v>
       </c>
       <c r="I2">
-        <v>5000</v>
+        <v>2500</v>
       </c>
     </row>
   </sheetData>
